--- a/words/5.17.xlsx
+++ b/words/5.17.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t>win</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -246,6 +246,154 @@
   </si>
   <si>
     <t>at length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wander</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>virtual 虚拟的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moreover 进一步说</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decisiveness  坚决；果断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amateur,业余n，业余的adj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rush through  快速通过；匆忙完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desirable 令人称赞的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rest on 依靠，基于</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emerge和submerge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区别于 resolve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wilfully 任意地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timescale 时间量程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>panel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stretch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两大意思</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>poverty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>poor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四个意思</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>poorly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deride 嘲讽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">destitute贫穷的pathetic可怜的sympathetic同情的 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reluctant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reluctantly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be reluctant to do sth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transaction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accompany</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两大意思</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accuracy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inaccuracy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>autonomous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cease</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>halt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suspend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pause</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -253,7 +401,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,6 +414,13 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -304,7 +459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -313,6 +468,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -595,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -632,7 +793,9 @@
         <v>3</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
@@ -667,18 +830,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="b">
-        <v>0</v>
+      <c r="A11" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -756,7 +923,7 @@
       <c r="C21" s="3"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="3"/>
@@ -772,7 +939,9 @@
         <v>19</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
@@ -800,7 +969,9 @@
         <v>23</v>
       </c>
       <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
+      <c r="C28" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
@@ -814,7 +985,9 @@
       <c r="B30" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="3"/>
+      <c r="C30" s="3" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
@@ -833,14 +1006,18 @@
         <v>27</v>
       </c>
       <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
+      <c r="C33" s="3" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
+      <c r="C34" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
@@ -891,7 +1068,9 @@
         <v>39</v>
       </c>
       <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
+      <c r="C41" s="3" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
@@ -976,7 +1155,9 @@
         <v>49</v>
       </c>
       <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
+      <c r="C54" s="3" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
@@ -1014,14 +1195,18 @@
         <v>53</v>
       </c>
       <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
+      <c r="C60" s="3" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
+      <c r="C61" s="3" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
@@ -1031,25 +1216,30 @@
       <c r="C62" s="3"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="5" t="s">
         <v>56</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="2"/>
+      <c r="A64" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="2"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="2"/>
-      <c r="B66" s="3"/>
+      <c r="A66" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="C66" s="3"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -1058,19 +1248,31 @@
       <c r="C67" s="3"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="2"/>
+      <c r="A68" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="2"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
+      <c r="A69" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="2"/>
+      <c r="A70" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
+      <c r="C70" s="3" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
@@ -1078,17 +1280,23 @@
       <c r="C71" s="3"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="2"/>
+      <c r="A72" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="2"/>
+      <c r="A73" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="2"/>
+      <c r="A74" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
     </row>
@@ -1098,7 +1306,9 @@
       <c r="C75" s="3"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="2"/>
+      <c r="A76" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
     </row>
@@ -1108,12 +1318,18 @@
       <c r="C77" s="3"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="2"/>
-      <c r="B78" s="3"/>
+      <c r="A78" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="C78" s="3"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="2"/>
+      <c r="A79" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
     </row>
@@ -1123,12 +1339,16 @@
       <c r="C80" s="3"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="2"/>
+      <c r="A81" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="2"/>
+      <c r="A82" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
     </row>
@@ -1138,12 +1358,16 @@
       <c r="C83" s="3"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="2"/>
+      <c r="A84" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" s="2"/>
+      <c r="A85" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
     </row>
@@ -1153,22 +1377,30 @@
       <c r="C86" s="3"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" s="2"/>
+      <c r="A87" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" s="2"/>
+      <c r="A88" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="2"/>
+      <c r="A89" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="2"/>
+      <c r="A90" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
     </row>

--- a/words/5.17.xlsx
+++ b/words/5.17.xlsx
@@ -756,7 +756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
       <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
